--- a/10/Let’sEngnner仕様書.xlsx
+++ b/10/Let’sEngnner仕様書.xlsx
@@ -1501,7 +1501,14 @@
           <table:table-cell table:style-name="ce1" table:number-columns-repeated="9"/>
           <table:table-cell table:number-columns-repeated="990"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="936">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="1">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="935">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro3" table:number-rows-repeated="1047575">
@@ -12324,12 +12331,12 @@
   <office:meta>
     <meta:initial-creator>中出 享</meta:initial-creator>
     <meta:creation-date>2023-05-24T18:23:08.51</meta:creation-date>
-    <dc:date>2023-06-11T09:05:30.72</dc:date>
+    <dc:date>2023-06-11T09:08:37.60</dc:date>
     <dc:creator>中出 享</dc:creator>
-    <meta:editing-duration>PT5H43M46S</meta:editing-duration>
-    <meta:editing-cycles>13</meta:editing-cycles>
+    <meta:editing-duration>PT5H44M21S</meta:editing-duration>
+    <meta:editing-cycles>14</meta:editing-cycles>
     <meta:generator>OpenOffice/4.1.11$Win32 OpenOffice.org_project/4111m1$Build-9808</meta:generator>
-    <meta:document-statistic meta:table-count="16" meta:cell-count="747" meta:object-count="52"/>
+    <meta:document-statistic meta:table-count="16" meta:cell-count="748" meta:object-count="52"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -12338,10 +12345,10 @@
 <office:document-settings xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:config="urn:oasis:names:tc:opendocument:xmlns:config:1.0" xmlns:ooo="http://openoffice.org/2004/office" office:version="1.2">
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
-      <config:config-item config:name="VisibleAreaTop" config:type="int">903</config:config-item>
-      <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">15806</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">11134</config:config-item>
+      <config:config-item config:name="VisibleAreaTop" config:type="int">527</config:config-item>
+      <config:config-item config:name="VisibleAreaLeft" config:type="int">585</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">51685</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">33664</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -13092,7 +13099,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2023-06-11">2023/06/11</text:date>
             , 
-            <text:time>09:05:30</text:time>
+            <text:time>09:08:37</text:time>
           </text:p>
         </style:region-right>
       </style:header>
